--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Google Drive\R\ncov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A06714A-0F68-45ED-B553-90CFCEC7817D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E198F-964D-4062-9AF0-860391C43132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,6 +3298,96 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B32" s="3">
+        <f>SUM(C32:AC32)</f>
+        <v>1128</v>
+      </c>
+      <c r="C32">
+        <v>459</v>
+      </c>
+      <c r="D32">
+        <v>119</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <v>43</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>51</v>
+      </c>
+      <c r="O32">
+        <v>20</v>
+      </c>
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>16</v>
+      </c>
+      <c r="S32">
+        <v>68</v>
+      </c>
+      <c r="T32">
+        <v>9</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E198F-964D-4062-9AF0-860391C43132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE48F56-C25B-4A69-8C2C-6CD84E5F048A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmados" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3395,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,7 +3593,7 @@
         <v>43906</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B7" si="0">SUM(C3:AC3)</f>
+        <f t="shared" ref="B3:B8" si="0">SUM(C3:AC3)</f>
         <v>0</v>
       </c>
       <c r="C3">
@@ -4035,6 +4035,96 @@
         <v>0</v>
       </c>
       <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>0</v>
       </c>
     </row>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549F295C-B12A-4867-A46B-1BB877DD0DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C56998-A1CF-497E-9643-414E25F4DCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmados" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,6 +2827,92 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B28">
+        <v>631</v>
+      </c>
+      <c r="C28">
+        <v>186</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>49</v>
+      </c>
+      <c r="F28">
+        <v>117</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>83</v>
+      </c>
+      <c r="I28">
+        <v>72</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>37</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>57</v>
+      </c>
+      <c r="N28">
+        <v>21</v>
+      </c>
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>21</v>
+      </c>
+      <c r="R28">
+        <v>112</v>
+      </c>
+      <c r="S28">
+        <v>11</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2834,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,6 +3447,92 @@
         <v>0</v>
       </c>
       <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B7" s="5">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>0</v>
       </c>
     </row>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C56998-A1CF-497E-9643-414E25F4DCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F313F-AC64-45E4-BDFB-6A245143E410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,6 +2913,92 @@
         <v>2</v>
       </c>
     </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B29">
+        <v>745</v>
+      </c>
+      <c r="C29">
+        <v>233</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>133</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>128</v>
+      </c>
+      <c r="I29">
+        <v>86</v>
+      </c>
+      <c r="J29">
+        <v>56</v>
+      </c>
+      <c r="K29">
+        <v>42</v>
+      </c>
+      <c r="L29">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <v>68</v>
+      </c>
+      <c r="N29">
+        <v>23</v>
+      </c>
+      <c r="O29">
+        <v>32</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>21</v>
+      </c>
+      <c r="R29">
+        <v>163</v>
+      </c>
+      <c r="S29">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2920,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:AB7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,6 +3619,92 @@
         <v>0</v>
       </c>
       <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B8" s="5">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>0</v>
       </c>
     </row>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F313F-AC64-45E4-BDFB-6A245143E410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19574541-9D04-4574-BA2D-01817F0FB766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
@@ -481,15 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
@@ -2999,6 +2999,92 @@
         <v>2</v>
       </c>
     </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B30">
+        <v>810</v>
+      </c>
+      <c r="C30">
+        <v>305</v>
+      </c>
+      <c r="D30">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <v>160</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>130</v>
+      </c>
+      <c r="I30">
+        <v>98</v>
+      </c>
+      <c r="J30">
+        <v>65</v>
+      </c>
+      <c r="K30">
+        <v>42</v>
+      </c>
+      <c r="L30">
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <v>107</v>
+      </c>
+      <c r="N30">
+        <v>27</v>
+      </c>
+      <c r="O30">
+        <v>47</v>
+      </c>
+      <c r="P30">
+        <v>15</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+      <c r="R30">
+        <v>182</v>
+      </c>
+      <c r="S30">
+        <v>17</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>7</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
+        <v>8</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3006,10 +3092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,6 +3791,92 @@
         <v>0</v>
       </c>
       <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B9" s="5">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>0</v>
       </c>
     </row>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19574541-9D04-4574-BA2D-01817F0FB766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C93BF-1313-404C-B138-F46166F7191A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,7 +3019,7 @@
         <v>160</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>130</v>
@@ -3083,6 +3083,92 @@
       </c>
       <c r="AB30">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B31">
+        <v>862</v>
+      </c>
+      <c r="C31">
+        <v>370</v>
+      </c>
+      <c r="D31">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>84</v>
+      </c>
+      <c r="F31">
+        <v>160</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>133</v>
+      </c>
+      <c r="I31">
+        <v>123</v>
+      </c>
+      <c r="J31">
+        <v>81</v>
+      </c>
+      <c r="K31">
+        <v>46</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>109</v>
+      </c>
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>54</v>
+      </c>
+      <c r="P31">
+        <v>16</v>
+      </c>
+      <c r="Q31">
+        <v>24</v>
+      </c>
+      <c r="R31">
+        <v>200</v>
+      </c>
+      <c r="S31">
+        <v>23</v>
+      </c>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>7</v>
+      </c>
+      <c r="W31">
+        <v>8</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+      <c r="Z31">
+        <v>8</v>
+      </c>
+      <c r="AA31">
+        <v>8</v>
+      </c>
+      <c r="AB31">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3092,18 +3178,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -3877,6 +3968,92 @@
         <v>0</v>
       </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B10" s="5">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>0</v>
       </c>
     </row>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C93BF-1313-404C-B138-F46166F7191A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE59B4C-5295-4982-92B4-EE9C2BC04A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmados" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,6 +3171,92 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B32">
+        <v>1052</v>
+      </c>
+      <c r="C32">
+        <v>421</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>104</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>153</v>
+      </c>
+      <c r="I32">
+        <v>168</v>
+      </c>
+      <c r="J32">
+        <v>102</v>
+      </c>
+      <c r="K32">
+        <v>48</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>122</v>
+      </c>
+      <c r="N32">
+        <v>39</v>
+      </c>
+      <c r="O32">
+        <v>67</v>
+      </c>
+      <c r="P32">
+        <v>16</v>
+      </c>
+      <c r="Q32">
+        <v>25</v>
+      </c>
+      <c r="R32">
+        <v>235</v>
+      </c>
+      <c r="S32">
+        <v>24</v>
+      </c>
+      <c r="T32">
+        <v>13</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>7</v>
+      </c>
+      <c r="W32">
+        <v>11</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
+      </c>
+      <c r="Z32">
+        <v>9</v>
+      </c>
+      <c r="AA32">
+        <v>10</v>
+      </c>
+      <c r="AB32">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3178,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4055,6 +4141,35 @@
       </c>
       <c r="AB10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B11" s="5">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F4FF6-5272-484A-9BD8-CFF8FB013F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C4B7A7-83AF-4820-AA2D-2902086BEF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmados" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,6 +3345,92 @@
         <v>8</v>
       </c>
     </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>111</v>
+      </c>
+      <c r="F34">
+        <v>128</v>
+      </c>
+      <c r="G34">
+        <v>314</v>
+      </c>
+      <c r="H34">
+        <v>260</v>
+      </c>
+      <c r="I34">
+        <v>53</v>
+      </c>
+      <c r="J34">
+        <v>56</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>13</v>
+      </c>
+      <c r="M34">
+        <v>31</v>
+      </c>
+      <c r="N34">
+        <v>205</v>
+      </c>
+      <c r="O34">
+        <v>17</v>
+      </c>
+      <c r="P34">
+        <v>14</v>
+      </c>
+      <c r="Q34">
+        <v>133</v>
+      </c>
+      <c r="R34">
+        <v>68</v>
+      </c>
+      <c r="S34">
+        <v>11</v>
+      </c>
+      <c r="T34">
+        <v>558</v>
+      </c>
+      <c r="U34">
+        <v>45</v>
+      </c>
+      <c r="V34">
+        <v>197</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+      <c r="X34">
+        <v>12</v>
+      </c>
+      <c r="Y34">
+        <v>184</v>
+      </c>
+      <c r="Z34">
+        <v>1406</v>
+      </c>
+      <c r="AA34">
+        <v>16</v>
+      </c>
+      <c r="AB34">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AB33">
     <sortCondition ref="B1:AB1"/>
@@ -3355,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,6 +4498,92 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>13</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>84</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AB12">
     <sortCondition ref="B1:AB1"/>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C4B7A7-83AF-4820-AA2D-2902086BEF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF9E40-C6D6-4EDF-9707-6420D44E0DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmados" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,6 +3431,92 @@
         <v>9</v>
       </c>
     </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>140</v>
+      </c>
+      <c r="F35">
+        <v>154</v>
+      </c>
+      <c r="G35">
+        <v>348</v>
+      </c>
+      <c r="H35">
+        <v>289</v>
+      </c>
+      <c r="I35">
+        <v>60</v>
+      </c>
+      <c r="J35">
+        <v>58</v>
+      </c>
+      <c r="K35">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>231</v>
+      </c>
+      <c r="O35">
+        <v>18</v>
+      </c>
+      <c r="P35">
+        <v>14</v>
+      </c>
+      <c r="Q35">
+        <v>148</v>
+      </c>
+      <c r="R35">
+        <v>73</v>
+      </c>
+      <c r="S35">
+        <v>14</v>
+      </c>
+      <c r="T35">
+        <v>600</v>
+      </c>
+      <c r="U35">
+        <v>68</v>
+      </c>
+      <c r="V35">
+        <v>226</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>16</v>
+      </c>
+      <c r="Y35">
+        <v>194</v>
+      </c>
+      <c r="Z35">
+        <v>1451</v>
+      </c>
+      <c r="AA35">
+        <v>16</v>
+      </c>
+      <c r="AB35">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AB33">
     <sortCondition ref="B1:AB1"/>
@@ -3441,10 +3527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,6 +3544,7 @@
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
@@ -4518,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4581,6 +4668,92 @@
         <v>0</v>
       </c>
       <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>17</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>98</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
         <v>0</v>
       </c>
     </row>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -1,67 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF9E40-C6D6-4EDF-9707-6420D44E0DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C91A61D-0398-4D60-B9D7-30579FB76DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8715317-6C76-427A-A24C-FAABE9034C5E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmados" sheetId="1" r:id="rId1"/>
     <sheet name="Mortes" sheetId="2" r:id="rId2"/>
     <sheet name="Populacao" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
-    <t>Data</t>
+    <t>Acre</t>
   </si>
   <si>
-    <t>São Paulo</t>
+    <t>Alagoas</t>
   </si>
   <si>
-    <t>Rio de Janeiro</t>
+    <t>Amapá</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
   </si>
   <si>
     <t>Espírito Santo</t>
   </si>
   <si>
-    <t>Bahia</t>
+    <t>Goiás</t>
   </si>
   <si>
-    <t>Distrito Federal</t>
+    <t>Maranhão</t>
   </si>
   <si>
-    <t>Alagoas</t>
+    <t>Mato Grosso</t>
+  </si>
+  <si>
+    <t>Mato Grosso do Sul</t>
   </si>
   <si>
     <t>Minas Gerais</t>
   </si>
   <si>
-    <t>Rio Grande do Sul</t>
+    <t>Pará</t>
+  </si>
+  <si>
+    <t>Paraíba</t>
   </si>
   <si>
     <t>Paraná</t>
@@ -70,49 +75,142 @@
     <t>Pernambuco</t>
   </si>
   <si>
+    <t>Piauí</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
     <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t>Rondônia</t>
+  </si>
+  <si>
+    <t>Roraima</t>
   </si>
   <si>
     <t>Santa Catarina</t>
   </si>
   <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Amazonas</t>
+    <t>São Paulo</t>
   </si>
   <si>
     <t>Sergipe</t>
   </si>
   <si>
-    <t>Mato Grosso do Sul</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Acre</t>
-  </si>
-  <si>
-    <t>Pará</t>
-  </si>
-  <si>
-    <t>Paraíba</t>
-  </si>
-  <si>
     <t>Tocantins</t>
   </si>
   <si>
-    <t>Mato Grosso</t>
+    <t>2020-02-25</t>
   </si>
   <si>
-    <t>Amapá</t>
+    <t>2020-02-26</t>
   </si>
   <si>
-    <t>Rondônia</t>
+    <t>2020-02-27</t>
   </si>
   <si>
-    <t>Piauí</t>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
   </si>
   <si>
     <t>UF</t>
@@ -121,10 +219,7 @@
     <t>População</t>
   </si>
   <si>
-    <t>Roraima</t>
-  </si>
-  <si>
-    <t>Maranhão</t>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -160,19 +255,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -195,44 +285,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -282,9 +372,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -340,436 +430,440 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F594326-93A6-48E1-98D0-94D840978A8B}">
-  <dimension ref="A1:AB35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -784,7 +878,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
@@ -793,7 +887,7 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
@@ -808,10 +902,10 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
@@ -826,7 +920,7 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
@@ -838,7 +932,7 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
@@ -847,13 +941,13 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43889</v>
+      <c r="A5" t="s">
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -870,7 +964,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
@@ -879,7 +973,7 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
@@ -912,7 +1006,7 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
@@ -924,7 +1018,7 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
@@ -938,10 +1032,10 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
@@ -956,7 +1050,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
@@ -965,7 +1059,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
@@ -980,10 +1074,10 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
@@ -998,7 +1092,7 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
@@ -1010,7 +1104,7 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
@@ -1019,13 +1113,13 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43891</v>
+      <c r="A7" t="s">
+        <v>32</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1042,7 +1136,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
@@ -1051,7 +1145,7 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
@@ -1084,7 +1178,7 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
@@ -1096,7 +1190,7 @@
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
@@ -1110,10 +1204,10 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
@@ -1128,7 +1222,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
@@ -1137,7 +1231,7 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
@@ -1152,10 +1246,10 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
@@ -1170,7 +1264,7 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
@@ -1182,7 +1276,7 @@
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
@@ -1191,13 +1285,13 @@
       <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43893</v>
+      <c r="A9" t="s">
+        <v>34</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1214,7 +1308,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
@@ -1223,7 +1317,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
@@ -1256,7 +1350,7 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
@@ -1268,7 +1362,7 @@
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
@@ -1282,10 +1376,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
@@ -1300,7 +1394,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
@@ -1309,7 +1403,7 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
@@ -1324,10 +1418,10 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
@@ -1342,7 +1436,7 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
@@ -1354,7 +1448,7 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
@@ -1363,13 +1457,13 @@
       <c r="AA10">
         <v>0</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43895</v>
+      <c r="A11" t="s">
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1386,7 +1480,7 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
@@ -1395,7 +1489,7 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
@@ -1428,7 +1522,7 @@
       <c r="T11">
         <v>1</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
@@ -1440,7 +1534,7 @@
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
@@ -1454,10 +1548,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
@@ -1472,7 +1566,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
@@ -1481,7 +1575,7 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
@@ -1496,10 +1590,10 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
@@ -1514,7 +1608,7 @@
       <c r="T12">
         <v>1</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
@@ -1526,7 +1620,7 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
@@ -1535,13 +1629,13 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43897</v>
+      <c r="A13" t="s">
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1558,7 +1652,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
@@ -1567,7 +1661,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
@@ -1600,7 +1694,7 @@
       <c r="T13">
         <v>1</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
@@ -1612,7 +1706,7 @@
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
@@ -1626,10 +1720,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
@@ -1644,7 +1738,7 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
@@ -1653,7 +1747,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
@@ -1668,10 +1762,10 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
@@ -1686,7 +1780,7 @@
       <c r="T14">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
@@ -1698,7 +1792,7 @@
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
@@ -1707,13 +1801,13 @@
       <c r="AA14">
         <v>0</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43899</v>
+      <c r="A15" t="s">
+        <v>40</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1730,7 +1824,7 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
@@ -1739,7 +1833,7 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
@@ -1772,7 +1866,7 @@
       <c r="T15">
         <v>3</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
@@ -1784,7 +1878,7 @@
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
@@ -1798,10 +1892,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
@@ -1816,7 +1910,7 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
@@ -1825,7 +1919,7 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
@@ -1840,10 +1934,10 @@
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
@@ -1858,7 +1952,7 @@
       <c r="T16">
         <v>8</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
@@ -1870,7 +1964,7 @@
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
@@ -1879,13 +1973,13 @@
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43901</v>
+      <c r="A17" t="s">
+        <v>42</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1902,7 +1996,7 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
@@ -1911,7 +2005,7 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
@@ -1944,7 +2038,7 @@
       <c r="T17">
         <v>13</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
@@ -1956,7 +2050,7 @@
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
@@ -1970,13 +2064,13 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>43902</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
@@ -1985,19 +2079,19 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
@@ -2009,31 +2103,31 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>6</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18">
         <v>2</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18">
         <v>16</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>4</v>
       </c>
       <c r="W18">
@@ -2042,27 +2136,27 @@
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>42</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>43903</v>
+      <c r="A19" t="s">
+        <v>44</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
@@ -2071,16 +2165,16 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
@@ -2095,7 +2189,7 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <v>2</v>
       </c>
       <c r="O19">
@@ -2104,22 +2198,22 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19">
         <v>6</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19">
         <v>2</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19">
         <v>16</v>
       </c>
       <c r="U19">
         <v>1</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19">
         <v>4</v>
       </c>
       <c r="W19">
@@ -2131,7 +2225,7 @@
       <c r="Y19">
         <v>2</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19">
         <v>56</v>
       </c>
       <c r="AA19">
@@ -2142,13 +2236,13 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
@@ -2157,16 +2251,16 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>6</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
@@ -2181,31 +2275,31 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20">
         <v>2</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20">
         <v>22</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20">
         <v>6</v>
       </c>
       <c r="W20">
@@ -2217,24 +2311,24 @@
       <c r="Y20">
         <v>4</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20">
         <v>65</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43905</v>
+      <c r="A21" t="s">
+        <v>46</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
@@ -2243,16 +2337,16 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
@@ -2267,7 +2361,7 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21">
         <v>2</v>
       </c>
       <c r="O21">
@@ -2276,22 +2370,22 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21">
         <v>6</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21">
         <v>2</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21">
         <v>24</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21">
         <v>6</v>
       </c>
       <c r="W21">
@@ -2303,7 +2397,7 @@
       <c r="Y21">
         <v>6</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21">
         <v>136</v>
       </c>
       <c r="AA21">
@@ -2314,13 +2408,13 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
@@ -2329,16 +2423,16 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>13</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
@@ -2353,31 +2447,31 @@
       <c r="M22">
         <v>2</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22">
         <v>2</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22">
         <v>31</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22">
         <v>6</v>
       </c>
       <c r="W22">
@@ -2389,24 +2483,24 @@
       <c r="Y22">
         <v>7</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22">
         <v>152</v>
       </c>
       <c r="AA22">
         <v>1</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43907</v>
+      <c r="A23" t="s">
+        <v>48</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
@@ -2415,16 +2509,16 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
         <v>5</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
         <v>22</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
@@ -2439,7 +2533,7 @@
       <c r="M23">
         <v>4</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23">
         <v>7</v>
       </c>
       <c r="O23">
@@ -2448,22 +2542,22 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23">
         <v>16</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23">
         <v>33</v>
       </c>
-      <c r="U23" s="3">
-        <v>1</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
         <v>10</v>
       </c>
       <c r="W23">
@@ -2475,7 +2569,7 @@
       <c r="Y23">
         <v>7</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23">
         <v>164</v>
       </c>
       <c r="AA23">
@@ -2486,13 +2580,13 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43908</v>
+      <c r="A24" t="s">
+        <v>49</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
@@ -2501,16 +2595,16 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>3</v>
       </c>
       <c r="G24">
         <v>9</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <v>26</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24">
         <v>9</v>
       </c>
       <c r="J24">
@@ -2525,7 +2619,7 @@
       <c r="M24">
         <v>7</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <v>15</v>
       </c>
       <c r="O24">
@@ -2534,22 +2628,22 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24">
         <v>13</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24">
         <v>16</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24">
         <v>45</v>
       </c>
-      <c r="U24" s="3">
-        <v>1</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
         <v>19</v>
       </c>
       <c r="W24">
@@ -2561,7 +2655,7 @@
       <c r="Y24">
         <v>10</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24">
         <v>240</v>
       </c>
       <c r="AA24">
@@ -2572,13 +2666,13 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43909</v>
+      <c r="A25" t="s">
+        <v>50</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
@@ -2587,16 +2681,16 @@
       <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>30</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
         <v>42</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25">
         <v>11</v>
       </c>
       <c r="J25">
@@ -2611,7 +2705,7 @@
       <c r="M25">
         <v>7</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25">
         <v>29</v>
       </c>
       <c r="O25">
@@ -2620,22 +2714,22 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25">
         <v>23</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25">
         <v>28</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25">
         <v>65</v>
       </c>
-      <c r="U25" s="3">
-        <v>1</v>
-      </c>
-      <c r="V25" s="3">
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
         <v>28</v>
       </c>
       <c r="W25">
@@ -2647,7 +2741,7 @@
       <c r="Y25">
         <v>20</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25">
         <v>286</v>
       </c>
       <c r="AA25">
@@ -2658,13 +2752,13 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43910</v>
+      <c r="A26" t="s">
+        <v>51</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
@@ -2673,16 +2767,16 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>33</v>
       </c>
       <c r="G26">
         <v>55</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>87</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
         <v>13</v>
       </c>
       <c r="J26">
@@ -2697,7 +2791,7 @@
       <c r="M26">
         <v>9</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26">
         <v>35</v>
       </c>
       <c r="O26">
@@ -2706,22 +2800,22 @@
       <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26">
         <v>32</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26">
         <v>30</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26">
         <v>109</v>
       </c>
-      <c r="U26" s="3">
-        <v>1</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
         <v>37</v>
       </c>
       <c r="W26">
@@ -2733,7 +2827,7 @@
       <c r="Y26">
         <v>21</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26">
         <v>396</v>
       </c>
       <c r="AA26">
@@ -2744,8 +2838,8 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43911</v>
+      <c r="A27" t="s">
+        <v>52</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -2830,8 +2924,8 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43912</v>
+      <c r="A28" t="s">
+        <v>53</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -2916,8 +3010,8 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43913</v>
+      <c r="A29" t="s">
+        <v>54</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -3002,8 +3096,8 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43914</v>
+      <c r="A30" t="s">
+        <v>55</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -3088,8 +3182,8 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43915</v>
+      <c r="A31" t="s">
+        <v>56</v>
       </c>
       <c r="B31">
         <v>23</v>
@@ -3174,8 +3268,8 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43916</v>
+      <c r="A32" t="s">
+        <v>57</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -3260,8 +3354,8 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43917</v>
+      <c r="A33" t="s">
+        <v>58</v>
       </c>
       <c r="B33">
         <v>25</v>
@@ -3346,8 +3440,8 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43918</v>
+      <c r="A34" t="s">
+        <v>59</v>
       </c>
       <c r="B34">
         <v>25</v>
@@ -3432,8 +3526,8 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43919</v>
+      <c r="A35" t="s">
+        <v>60</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3517,1276 +3611,3399 @@
         <v>9</v>
       </c>
     </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>151</v>
+      </c>
+      <c r="F36">
+        <v>176</v>
+      </c>
+      <c r="G36">
+        <v>372</v>
+      </c>
+      <c r="H36">
+        <v>312</v>
+      </c>
+      <c r="I36">
+        <v>72</v>
+      </c>
+      <c r="J36">
+        <v>61</v>
+      </c>
+      <c r="K36">
+        <v>23</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+      <c r="M36">
+        <v>44</v>
+      </c>
+      <c r="N36">
+        <v>261</v>
+      </c>
+      <c r="O36">
+        <v>21</v>
+      </c>
+      <c r="P36">
+        <v>15</v>
+      </c>
+      <c r="Q36">
+        <v>155</v>
+      </c>
+      <c r="R36">
+        <v>78</v>
+      </c>
+      <c r="S36">
+        <v>16</v>
+      </c>
+      <c r="T36">
+        <v>657</v>
+      </c>
+      <c r="U36">
+        <v>77</v>
+      </c>
+      <c r="V36">
+        <v>241</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>16</v>
+      </c>
+      <c r="Y36">
+        <v>197</v>
+      </c>
+      <c r="Z36">
+        <v>1517</v>
+      </c>
+      <c r="AA36">
+        <v>16</v>
+      </c>
+      <c r="AB36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>175</v>
+      </c>
+      <c r="F37">
+        <v>213</v>
+      </c>
+      <c r="G37">
+        <v>390</v>
+      </c>
+      <c r="H37">
+        <v>332</v>
+      </c>
+      <c r="I37">
+        <v>84</v>
+      </c>
+      <c r="J37">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>31</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>48</v>
+      </c>
+      <c r="N37">
+        <v>275</v>
+      </c>
+      <c r="O37">
+        <v>32</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37">
+        <v>179</v>
+      </c>
+      <c r="R37">
+        <v>87</v>
+      </c>
+      <c r="S37">
+        <v>18</v>
+      </c>
+      <c r="T37">
+        <v>708</v>
+      </c>
+      <c r="U37">
+        <v>82</v>
+      </c>
+      <c r="V37">
+        <v>274</v>
+      </c>
+      <c r="W37">
+        <v>8</v>
+      </c>
+      <c r="X37">
+        <v>16</v>
+      </c>
+      <c r="Y37">
+        <v>219</v>
+      </c>
+      <c r="Z37">
+        <v>2339</v>
+      </c>
+      <c r="AA37">
+        <v>19</v>
+      </c>
+      <c r="AB37">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AB33">
-    <sortCondition ref="B1:AB1"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7285B4F-F07F-434C-951D-164016DCCE7C}">
-  <dimension ref="A1:AB14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>9</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>15</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>22</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>30</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>40</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>48</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>9</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>58</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>68</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>13</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>84</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>17</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>98</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>18</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>113</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
         <v>2</v>
       </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43908</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
         <v>4</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="T37">
+        <v>23</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>4</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>2</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43910</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>9</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>15</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>22</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>30</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>6</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>40</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>6</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>9</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>58</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>10</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>68</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>13</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>84</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <v>5</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>17</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>98</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5">
+      <c r="Z37">
+        <v>136</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AB12">
-    <sortCondition ref="B1:AB1"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7655CD15-BC59-41BC-84E6-26BFFDCCFE85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -4794,7 +7011,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -4802,7 +7019,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -4810,7 +7027,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -4818,7 +7035,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -4826,7 +7043,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -4834,7 +7051,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -4842,7 +7059,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -4850,7 +7067,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -4858,7 +7075,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -4866,7 +7083,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -4874,7 +7091,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -4882,7 +7099,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -4890,7 +7107,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -4898,7 +7115,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -4914,7 +7131,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -4922,7 +7139,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -4930,7 +7147,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -4938,7 +7155,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -4946,7 +7163,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -4954,7 +7171,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -4962,7 +7179,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -4970,7 +7187,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -4978,7 +7195,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -4986,7 +7203,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -4994,13 +7211,13 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>3015268</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\molx.github.io\covid-19\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C91A61D-0398-4D60-B9D7-30579FB76DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmados" sheetId="1" r:id="rId1"/>
     <sheet name="Mortes" sheetId="2" r:id="rId2"/>
     <sheet name="Populacao" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
+  <si>
+    <t>Data</t>
+  </si>
   <si>
     <t>Acre</t>
   </si>
@@ -213,20 +210,20 @@
     <t>2020-03-31</t>
   </si>
   <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
     <t>População</t>
   </si>
-  <si>
-    <t>Data</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,19 +260,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -317,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,27 +338,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,24 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,102 +547,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -773,9 +726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -859,9 +812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -945,9 +898,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1031,9 +984,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1117,9 +1070,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1203,9 +1156,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1289,9 +1242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1375,9 +1328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1461,9 +1414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1547,9 +1500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1633,9 +1586,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1719,9 +1672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1805,9 +1758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1891,9 +1844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1977,9 +1930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2063,9 +2016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2149,9 +2102,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2235,9 +2188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2321,9 +2274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2407,9 +2360,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2493,9 +2446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2579,9 +2532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2665,9 +2618,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -2751,9 +2704,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2837,9 +2790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -2923,9 +2876,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -3009,9 +2962,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -3095,9 +3048,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -3181,9 +3134,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>23</v>
@@ -3267,9 +3220,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -3353,9 +3306,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>25</v>
@@ -3439,9 +3392,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>25</v>
@@ -3525,9 +3478,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3611,9 +3564,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>42</v>
@@ -3697,9 +3650,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>42</v>
@@ -3781,6 +3734,92 @@
       </c>
       <c r="AB37">
         <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <v>246</v>
+      </c>
+      <c r="G38">
+        <v>444</v>
+      </c>
+      <c r="H38">
+        <v>355</v>
+      </c>
+      <c r="I38">
+        <v>96</v>
+      </c>
+      <c r="J38">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>54</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>51</v>
+      </c>
+      <c r="N38">
+        <v>314</v>
+      </c>
+      <c r="O38">
+        <v>40</v>
+      </c>
+      <c r="P38">
+        <v>20</v>
+      </c>
+      <c r="Q38">
+        <v>224</v>
+      </c>
+      <c r="R38">
+        <v>95</v>
+      </c>
+      <c r="S38">
+        <v>18</v>
+      </c>
+      <c r="T38">
+        <v>832</v>
+      </c>
+      <c r="U38">
+        <v>92</v>
+      </c>
+      <c r="V38">
+        <v>306</v>
+      </c>
+      <c r="W38">
+        <v>9</v>
+      </c>
+      <c r="X38">
+        <v>22</v>
+      </c>
+      <c r="Y38">
+        <v>235</v>
+      </c>
+      <c r="Z38">
+        <v>2981</v>
+      </c>
+      <c r="AA38">
+        <v>20</v>
+      </c>
+      <c r="AB38">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3789,104 +3828,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3970,9 +4007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4056,9 +4093,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4142,9 +4179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4228,9 +4265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4314,9 +4351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4400,9 +4437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4486,9 +4523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4572,9 +4609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4658,9 +4695,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4744,9 +4781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4830,9 +4867,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4916,9 +4953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5002,9 +5039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5088,9 +5125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5174,9 +5211,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5260,9 +5297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5346,9 +5383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5432,9 +5469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5518,9 +5555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5604,9 +5641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5690,9 +5727,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5776,9 +5813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5862,9 +5899,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5948,9 +5985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6034,9 +6071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6120,9 +6157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6206,9 +6243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6292,9 +6329,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6378,9 +6415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6464,9 +6501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6550,9 +6587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6636,9 +6673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6722,9 +6759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6808,9 +6845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6894,9 +6931,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6977,6 +7014,92 @@
         <v>0</v>
       </c>
       <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>28</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>4</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>164</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
         <v>0</v>
       </c>
     </row>
@@ -6986,232 +7109,232 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1777225</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>881935</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4144597</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>605761</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>8602865</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>845731</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1572866</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>7075181</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>3273227</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>9132078</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>3506853</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>4018127</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>9557071</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>3337357</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>2298696</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>14873064</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>21168791</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>4018650</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>17264943</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>45919049</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>11433957</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>7164788</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>11377239</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>2778986</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>3484466</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>7018354</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>Data</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-04-02</t>
   </si>
   <si>
     <t>UF</t>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3822,6 +3825,92 @@
         <v>12</v>
       </c>
     </row>
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>229</v>
+      </c>
+      <c r="F39">
+        <v>267</v>
+      </c>
+      <c r="G39">
+        <v>550</v>
+      </c>
+      <c r="H39">
+        <v>370</v>
+      </c>
+      <c r="I39">
+        <v>120</v>
+      </c>
+      <c r="J39">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>71</v>
+      </c>
+      <c r="L39">
+        <v>36</v>
+      </c>
+      <c r="M39">
+        <v>53</v>
+      </c>
+      <c r="N39">
+        <v>370</v>
+      </c>
+      <c r="O39">
+        <v>46</v>
+      </c>
+      <c r="P39">
+        <v>21</v>
+      </c>
+      <c r="Q39">
+        <v>252</v>
+      </c>
+      <c r="R39">
+        <v>106</v>
+      </c>
+      <c r="S39">
+        <v>19</v>
+      </c>
+      <c r="T39">
+        <v>992</v>
+      </c>
+      <c r="U39">
+        <v>105</v>
+      </c>
+      <c r="V39">
+        <v>334</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39">
+        <v>26</v>
+      </c>
+      <c r="Y39">
+        <v>247</v>
+      </c>
+      <c r="Z39">
+        <v>3506</v>
+      </c>
+      <c r="AA39">
+        <v>23</v>
+      </c>
+      <c r="AB39">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3829,7 +3918,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7100,6 +7189,92 @@
         <v>0</v>
       </c>
       <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+      <c r="R39">
+        <v>9</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>41</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>188</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
         <v>0</v>
       </c>
     </row>
@@ -7118,10 +7293,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/covid-19/data/Brasil.xlsx
+++ b/covid-19/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>Data</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>2020-04-02</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
   </si>
   <si>
     <t>UF</t>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3911,6 +3914,92 @@
         <v>12</v>
       </c>
     </row>
+    <row r="40" spans="1:28">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <v>260</v>
+      </c>
+      <c r="F40">
+        <v>282</v>
+      </c>
+      <c r="G40">
+        <v>627</v>
+      </c>
+      <c r="H40">
+        <v>402</v>
+      </c>
+      <c r="I40">
+        <v>139</v>
+      </c>
+      <c r="J40">
+        <v>88</v>
+      </c>
+      <c r="K40">
+        <v>81</v>
+      </c>
+      <c r="L40">
+        <v>44</v>
+      </c>
+      <c r="M40">
+        <v>60</v>
+      </c>
+      <c r="N40">
+        <v>397</v>
+      </c>
+      <c r="O40">
+        <v>50</v>
+      </c>
+      <c r="P40">
+        <v>29</v>
+      </c>
+      <c r="Q40">
+        <v>301</v>
+      </c>
+      <c r="R40">
+        <v>136</v>
+      </c>
+      <c r="S40">
+        <v>21</v>
+      </c>
+      <c r="T40">
+        <v>1074</v>
+      </c>
+      <c r="U40">
+        <v>176</v>
+      </c>
+      <c r="V40">
+        <v>396</v>
+      </c>
+      <c r="W40">
+        <v>10</v>
+      </c>
+      <c r="X40">
+        <v>30</v>
+      </c>
+      <c r="Y40">
+        <v>281</v>
+      </c>
+      <c r="Z40">
+        <v>4048</v>
+      </c>
+      <c r="AA40">
+        <v>25</v>
+      </c>
+      <c r="AB40">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3918,7 +4007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7275,6 +7364,92 @@
         <v>2</v>
       </c>
       <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+      <c r="T40">
+        <v>47</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>5</v>
+      </c>
+      <c r="Z40">
+        <v>219</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
         <v>0</v>
       </c>
     </row>
@@ -7293,10 +7468,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
